--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3706082.475518923</v>
+        <v>3705729.549433446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238992.8148320336</v>
+        <v>238992.8148320315</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>41.91176353195331</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -716,16 +716,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.6279798458497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>95.02456974162986</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>148.2898866490551</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.518793999885657</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>46.84325891103072</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>357.3408159290257</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>377.1608800863964</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>4.240530273903894</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>25.32205092963919</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>42.98873945912788</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>38.62046437594779</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>141.0598120912427</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>41.33210888672573</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.54853274729805</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>23.62900810605255</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>1.499879995623289</v>
       </c>
       <c r="F11" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508318</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>141.6897886013696</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655128</v>
@@ -1458,7 +1458,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>118.7813687841216</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761973</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355683</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1607,7 +1607,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>255.6655596168399</v>
@@ -1619,7 +1619,7 @@
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>22.00040080895063</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>72.81556728089726</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.2597570679454</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761973</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355683</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1980,7 +1980,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5461750406465</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -2166,7 +2166,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>130.9922385581946</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2646,13 +2646,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>112.8757236914449</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133625</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133624</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.0186241529798</v>
+        <v>253.01862415298</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0299411106616</v>
+        <v>241.0299411106618</v>
       </c>
       <c r="D32" t="n">
-        <v>232.0112451551895</v>
+        <v>232.0112451551898</v>
       </c>
       <c r="E32" t="n">
-        <v>253.7533827250951</v>
+        <v>253.7533827250953</v>
       </c>
       <c r="F32" t="n">
-        <v>272.9251988130723</v>
+        <v>272.9251988130725</v>
       </c>
       <c r="G32" t="n">
-        <v>274.8584667104948</v>
+        <v>274.858466710495</v>
       </c>
       <c r="H32" t="n">
-        <v>192.4085816888047</v>
+        <v>192.4085816888049</v>
       </c>
       <c r="I32" t="n">
-        <v>34.00454683343281</v>
+        <v>34.00454683343304</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.27220564609044</v>
+        <v>48.27220564609067</v>
       </c>
       <c r="T32" t="n">
-        <v>85.0308768364398</v>
+        <v>85.03087683644003</v>
       </c>
       <c r="U32" t="n">
-        <v>115.2520029532868</v>
+        <v>115.252002953287</v>
       </c>
       <c r="V32" t="n">
-        <v>196.5250013931589</v>
+        <v>196.5250013931592</v>
       </c>
       <c r="W32" t="n">
-        <v>221.8251008711158</v>
+        <v>221.8251008711161</v>
       </c>
       <c r="X32" t="n">
-        <v>241.1253591038625</v>
+        <v>241.1253591038627</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.5219569000612</v>
+        <v>252.5219569000614</v>
       </c>
     </row>
     <row r="33">
@@ -3117,10 +3117,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841208</v>
       </c>
       <c r="G33" t="n">
-        <v>112.8757236914448</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.63533502767689</v>
+        <v>44.63533502767712</v>
       </c>
       <c r="C34" t="n">
-        <v>30.83532987307737</v>
+        <v>30.8353298730776</v>
       </c>
       <c r="D34" t="n">
-        <v>14.45669427065576</v>
+        <v>14.45669427065599</v>
       </c>
       <c r="E34" t="n">
-        <v>13.40444412643521</v>
+        <v>13.40444412643544</v>
       </c>
       <c r="F34" t="n">
-        <v>13.87136845462152</v>
+        <v>13.87136845462175</v>
       </c>
       <c r="G34" t="n">
-        <v>30.14607117596935</v>
+        <v>30.14607117596958</v>
       </c>
       <c r="H34" t="n">
-        <v>20.69443879865977</v>
+        <v>20.69443879866</v>
       </c>
       <c r="I34" t="n">
-        <v>5.676533983489122</v>
+        <v>5.67653398348935</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.94208360190643</v>
+        <v>10.94208360190666</v>
       </c>
       <c r="S34" t="n">
-        <v>74.48818500049018</v>
+        <v>74.4881850004904</v>
       </c>
       <c r="T34" t="n">
-        <v>93.76268368261881</v>
+        <v>93.76268368261904</v>
       </c>
       <c r="U34" t="n">
-        <v>147.233857145932</v>
+        <v>147.2338571459322</v>
       </c>
       <c r="V34" t="n">
-        <v>121.0434714273025</v>
+        <v>121.0434714273027</v>
       </c>
       <c r="W34" t="n">
-        <v>146.2103574979157</v>
+        <v>146.210357497916</v>
       </c>
       <c r="X34" t="n">
-        <v>91.85545949371885</v>
+        <v>91.85545949371908</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.73032724978654</v>
+        <v>82.73032724978677</v>
       </c>
     </row>
     <row r="35">
@@ -3345,13 +3345,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>143.2597570679445</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.8775670809617</v>
+        <v>255.8299181189404</v>
       </c>
       <c r="C41" t="n">
         <v>243.8412350766222</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>234.8225391211501</v>
       </c>
       <c r="E41" t="n">
-        <v>256.5646766910557</v>
+        <v>256.5646766910556</v>
       </c>
       <c r="F41" t="n">
-        <v>275.7364927790329</v>
+        <v>112.3839071765056</v>
       </c>
       <c r="G41" t="n">
-        <v>277.6697606764554</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>195.2198756547653</v>
       </c>
       <c r="I41" t="n">
-        <v>36.81584079939344</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.08349961205107</v>
+        <v>51.08349961205104</v>
       </c>
       <c r="T41" t="n">
-        <v>87.84217080240043</v>
+        <v>87.8421708024004</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V41" t="n">
-        <v>199.3362953591196</v>
+        <v>199.3362953591195</v>
       </c>
       <c r="W41" t="n">
-        <v>224.6363948370765</v>
+        <v>224.6363948370764</v>
       </c>
       <c r="X41" t="n">
         <v>243.9366530698231</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>84.37298759326568</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.44662899363752</v>
+        <v>47.44662899363749</v>
       </c>
       <c r="C43" t="n">
-        <v>33.646623839038</v>
+        <v>33.64662383903797</v>
       </c>
       <c r="D43" t="n">
-        <v>17.26798823661639</v>
+        <v>17.26798823661636</v>
       </c>
       <c r="E43" t="n">
-        <v>16.21573809239584</v>
+        <v>16.21573809239581</v>
       </c>
       <c r="F43" t="n">
-        <v>16.68266242058215</v>
+        <v>16.68266242058212</v>
       </c>
       <c r="G43" t="n">
-        <v>32.95736514192998</v>
+        <v>32.95736514192996</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5057327646204</v>
+        <v>23.50573276462038</v>
       </c>
       <c r="I43" t="n">
-        <v>8.487827949449752</v>
+        <v>8.487827949449724</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.75337756786706</v>
+        <v>13.75337756786703</v>
       </c>
       <c r="S43" t="n">
-        <v>77.29947896645081</v>
+        <v>77.29947896645078</v>
       </c>
       <c r="T43" t="n">
-        <v>96.57397764857944</v>
+        <v>96.57397764857942</v>
       </c>
       <c r="U43" t="n">
         <v>150.0451511118926</v>
@@ -3958,13 +3958,13 @@
         <v>123.8547653932631</v>
       </c>
       <c r="W43" t="n">
-        <v>149.0216514638764</v>
+        <v>149.0216514638763</v>
       </c>
       <c r="X43" t="n">
-        <v>94.66675345967948</v>
+        <v>94.66675345967946</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.54162121574717</v>
+        <v>85.54162121574714</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>255.8299181189405</v>
       </c>
       <c r="C44" t="n">
-        <v>243.8412350766223</v>
+        <v>243.8412350766222</v>
       </c>
       <c r="D44" t="n">
         <v>234.8225391211502</v>
       </c>
       <c r="E44" t="n">
-        <v>61.78853606984399</v>
+        <v>93.21209108852761</v>
       </c>
       <c r="F44" t="n">
         <v>275.7364927790329</v>
       </c>
       <c r="G44" t="n">
-        <v>277.6697606764554</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>195.2198756547654</v>
       </c>
       <c r="I44" t="n">
-        <v>36.81584079939353</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.08349961205116</v>
+        <v>51.08349961205113</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>87.84217080240049</v>
       </c>
       <c r="U44" t="n">
-        <v>118.0632969192475</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V44" t="n">
         <v>199.3362953591196</v>
       </c>
       <c r="W44" t="n">
-        <v>224.6363948370766</v>
+        <v>224.6363948370765</v>
       </c>
       <c r="X44" t="n">
-        <v>243.9366530698232</v>
+        <v>243.9366530698231</v>
       </c>
       <c r="Y44" t="n">
         <v>255.3332508660219</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.4466289936376</v>
+        <v>47.44662899363757</v>
       </c>
       <c r="C46" t="n">
-        <v>33.64662383903809</v>
+        <v>33.64662383903806</v>
       </c>
       <c r="D46" t="n">
-        <v>17.26798823661647</v>
+        <v>17.26798823661645</v>
       </c>
       <c r="E46" t="n">
-        <v>16.21573809239592</v>
+        <v>16.2157380923959</v>
       </c>
       <c r="F46" t="n">
-        <v>16.68266242058223</v>
+        <v>16.6826624205822</v>
       </c>
       <c r="G46" t="n">
-        <v>32.95736514193007</v>
+        <v>32.95736514193004</v>
       </c>
       <c r="H46" t="n">
-        <v>23.50573276462049</v>
+        <v>23.50573276462046</v>
       </c>
       <c r="I46" t="n">
-        <v>8.487827949449837</v>
+        <v>8.487827949449809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.75337756786715</v>
+        <v>13.75337756786712</v>
       </c>
       <c r="S46" t="n">
-        <v>77.29947896645089</v>
+        <v>77.29947896645086</v>
       </c>
       <c r="T46" t="n">
-        <v>96.57397764857953</v>
+        <v>96.5739776485795</v>
       </c>
       <c r="U46" t="n">
         <v>150.0451511118927</v>
@@ -4195,13 +4195,13 @@
         <v>123.8547653932632</v>
       </c>
       <c r="W46" t="n">
-        <v>149.0216514638765</v>
+        <v>149.0216514638764</v>
       </c>
       <c r="X46" t="n">
-        <v>94.66675345967957</v>
+        <v>94.66675345967954</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.54162121574726</v>
+        <v>85.54162121574723</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.01447880763607</v>
+        <v>103.3495934863769</v>
       </c>
       <c r="C2" t="n">
-        <v>61.01447880763607</v>
+        <v>103.3495934863769</v>
       </c>
       <c r="D2" t="n">
-        <v>61.01447880763607</v>
+        <v>103.3495934863769</v>
       </c>
       <c r="E2" t="n">
-        <v>61.01447880763607</v>
+        <v>61.01447880763615</v>
       </c>
       <c r="F2" t="n">
-        <v>50.90369215821045</v>
+        <v>50.90369215821054</v>
       </c>
       <c r="G2" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="H2" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I2" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J2" t="n">
-        <v>110.8386539256081</v>
+        <v>110.8386539256082</v>
       </c>
       <c r="K2" t="n">
-        <v>350.9790259703909</v>
+        <v>350.979025970391</v>
       </c>
       <c r="L2" t="n">
-        <v>698.8643990553371</v>
+        <v>698.8643990553373</v>
       </c>
       <c r="M2" t="n">
-        <v>936.0803893369844</v>
+        <v>936.0803893369889</v>
       </c>
       <c r="N2" t="n">
-        <v>1314.4117480247</v>
+        <v>1314.411748024705</v>
       </c>
       <c r="O2" t="n">
-        <v>1619.416332497534</v>
+        <v>1619.416332497538</v>
       </c>
       <c r="P2" t="n">
-        <v>1847.573228953587</v>
+        <v>1847.573228953592</v>
       </c>
       <c r="Q2" t="n">
-        <v>1942.005482640124</v>
+        <v>1942.005482640129</v>
       </c>
       <c r="R2" t="n">
-        <v>1851.367196135978</v>
+        <v>1851.367196135982</v>
       </c>
       <c r="S2" t="n">
-        <v>1664.138220766331</v>
+        <v>1664.138220766336</v>
       </c>
       <c r="T2" t="n">
-        <v>1439.779274497343</v>
+        <v>1439.779274497347</v>
       </c>
       <c r="U2" t="n">
-        <v>1184.893938211337</v>
+        <v>1184.893938211341</v>
       </c>
       <c r="V2" t="n">
-        <v>1184.893938211337</v>
+        <v>847.9146641072825</v>
       </c>
       <c r="W2" t="n">
-        <v>822.3590080689378</v>
+        <v>485.3797339648835</v>
       </c>
       <c r="X2" t="n">
-        <v>822.3590080689378</v>
+        <v>103.3495934863769</v>
       </c>
       <c r="Y2" t="n">
-        <v>455.0580183256552</v>
+        <v>103.3495934863769</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>554.7927146747035</v>
+        <v>702.7425749017789</v>
       </c>
       <c r="C3" t="n">
-        <v>393.0890419156582</v>
+        <v>541.0389021427336</v>
       </c>
       <c r="D3" t="n">
-        <v>254.2504049058703</v>
+        <v>402.2002651329457</v>
       </c>
       <c r="E3" t="n">
-        <v>107.2223949627415</v>
+        <v>402.2002651329457</v>
       </c>
       <c r="F3" t="n">
-        <v>107.2223949627415</v>
+        <v>267.50646708282</v>
       </c>
       <c r="G3" t="n">
-        <v>107.2223949627415</v>
+        <v>138.7779671061045</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2223949627415</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I3" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J3" t="n">
-        <v>38.84010965280248</v>
+        <v>99.09425618590872</v>
       </c>
       <c r="K3" t="n">
-        <v>38.84010965280248</v>
+        <v>328.5848087460974</v>
       </c>
       <c r="L3" t="n">
-        <v>404.6619548229181</v>
+        <v>678.6168494575676</v>
       </c>
       <c r="M3" t="n">
-        <v>609.2916258412511</v>
+        <v>1159.263206410999</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.937982794682</v>
+        <v>1639.909563364431</v>
       </c>
       <c r="O3" t="n">
-        <v>1482.137933578833</v>
+        <v>1639.909563364431</v>
       </c>
       <c r="P3" t="n">
-        <v>1784.23385285453</v>
+        <v>1942.005482640129</v>
       </c>
       <c r="Q3" t="n">
-        <v>1942.005482640124</v>
+        <v>1942.005482640129</v>
       </c>
       <c r="R3" t="n">
-        <v>1882.22121373507</v>
+        <v>1882.221213735074</v>
       </c>
       <c r="S3" t="n">
-        <v>1729.42172674781</v>
+        <v>1729.421726747815</v>
       </c>
       <c r="T3" t="n">
-        <v>1633.437312867376</v>
+        <v>1540.7366229138</v>
       </c>
       <c r="U3" t="n">
-        <v>1414.942520465686</v>
+        <v>1322.24183051211</v>
       </c>
       <c r="V3" t="n">
-        <v>1186.54689791402</v>
+        <v>1093.846207960444</v>
       </c>
       <c r="W3" t="n">
-        <v>945.2310291473301</v>
+        <v>852.5303391937538</v>
       </c>
       <c r="X3" t="n">
-        <v>747.3140410251247</v>
+        <v>702.7425749017789</v>
       </c>
       <c r="Y3" t="n">
-        <v>554.7927146747035</v>
+        <v>702.7425749017789</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.5238090243469</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="C4" t="n">
-        <v>335.5238090243469</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="D4" t="n">
-        <v>335.5238090243469</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="E4" t="n">
-        <v>335.5238090243469</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="F4" t="n">
-        <v>183.043154050124</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="G4" t="n">
-        <v>183.043154050124</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="H4" t="n">
-        <v>183.043154050124</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I4" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J4" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="K4" t="n">
-        <v>72.44429739744589</v>
+        <v>72.44429739744598</v>
       </c>
       <c r="L4" t="n">
-        <v>173.0513767977054</v>
+        <v>173.0513767977055</v>
       </c>
       <c r="M4" t="n">
-        <v>291.0448829253071</v>
+        <v>291.0448829253072</v>
       </c>
       <c r="N4" t="n">
-        <v>409.4672246749075</v>
+        <v>409.4672246749076</v>
       </c>
       <c r="O4" t="n">
         <v>507.9308711705972</v>
       </c>
       <c r="P4" t="n">
-        <v>570.8993548987349</v>
+        <v>570.8993548987351</v>
       </c>
       <c r="Q4" t="n">
-        <v>532.3620135524239</v>
+        <v>532.3620135524241</v>
       </c>
       <c r="R4" t="n">
-        <v>382.8402321668021</v>
+        <v>532.3620135524241</v>
       </c>
       <c r="S4" t="n">
-        <v>382.8402321668021</v>
+        <v>532.3620135524241</v>
       </c>
       <c r="T4" t="n">
-        <v>382.8402321668021</v>
+        <v>530.8278781990042</v>
       </c>
       <c r="U4" t="n">
-        <v>382.8402321668021</v>
+        <v>530.8278781990042</v>
       </c>
       <c r="V4" t="n">
-        <v>382.8402321668021</v>
+        <v>270.0925737574268</v>
       </c>
       <c r="W4" t="n">
-        <v>335.5238090243469</v>
+        <v>270.0925737574268</v>
       </c>
       <c r="X4" t="n">
-        <v>335.5238090243469</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="Y4" t="n">
-        <v>335.5238090243469</v>
+        <v>38.84010965280257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.9482374748287</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="C5" t="n">
-        <v>61.01447880763607</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="D5" t="n">
-        <v>61.01447880763607</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="E5" t="n">
-        <v>61.01447880763607</v>
+        <v>233.8316775988401</v>
       </c>
       <c r="F5" t="n">
-        <v>50.90369215821045</v>
+        <v>223.7208909494145</v>
       </c>
       <c r="G5" t="n">
-        <v>38.84010965280248</v>
+        <v>211.6573084440066</v>
       </c>
       <c r="H5" t="n">
-        <v>38.84010965280248</v>
+        <v>211.6573084440066</v>
       </c>
       <c r="I5" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J5" t="n">
-        <v>110.8386539256081</v>
+        <v>110.8386539256082</v>
       </c>
       <c r="K5" t="n">
-        <v>350.9790259703909</v>
+        <v>350.979025970391</v>
       </c>
       <c r="L5" t="n">
-        <v>698.8643990553371</v>
+        <v>698.8643990553373</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.103565308425</v>
+        <v>936.0803893369889</v>
       </c>
       <c r="N5" t="n">
-        <v>1314.4117480247</v>
+        <v>1314.411748024705</v>
       </c>
       <c r="O5" t="n">
-        <v>1619.416332497534</v>
+        <v>1619.416332497538</v>
       </c>
       <c r="P5" t="n">
-        <v>1847.573228953587</v>
+        <v>1847.573228953592</v>
       </c>
       <c r="Q5" t="n">
-        <v>1942.005482640124</v>
+        <v>1942.005482640129</v>
       </c>
       <c r="R5" t="n">
-        <v>1942.005482640124</v>
+        <v>1851.367196135982</v>
       </c>
       <c r="S5" t="n">
-        <v>1942.005482640124</v>
+        <v>1851.367196135982</v>
       </c>
       <c r="T5" t="n">
-        <v>1942.005482640124</v>
+        <v>1627.008249866993</v>
       </c>
       <c r="U5" t="n">
-        <v>1942.005482640124</v>
+        <v>1372.122913580987</v>
       </c>
       <c r="V5" t="n">
-        <v>1942.005482640124</v>
+        <v>1372.122913580987</v>
       </c>
       <c r="W5" t="n">
-        <v>1579.470552497725</v>
+        <v>1009.587983438588</v>
       </c>
       <c r="X5" t="n">
-        <v>1197.440412019219</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="Y5" t="n">
-        <v>803.8985565950567</v>
+        <v>628.6173974927333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.1528701548465</v>
+        <v>710.9319478351197</v>
       </c>
       <c r="C6" t="n">
-        <v>756.4491973958012</v>
+        <v>549.2282750760744</v>
       </c>
       <c r="D6" t="n">
-        <v>617.6105603860133</v>
+        <v>549.2282750760744</v>
       </c>
       <c r="E6" t="n">
-        <v>470.5825504428846</v>
+        <v>402.2002651329457</v>
       </c>
       <c r="F6" t="n">
-        <v>335.8887523927589</v>
+        <v>267.50646708282</v>
       </c>
       <c r="G6" t="n">
-        <v>207.1602524160434</v>
+        <v>138.7779671061045</v>
       </c>
       <c r="H6" t="n">
-        <v>107.2223949627415</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I6" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J6" t="n">
-        <v>99.09425618590862</v>
+        <v>99.09425618590872</v>
       </c>
       <c r="K6" t="n">
-        <v>328.5848087460973</v>
+        <v>328.5848087460974</v>
       </c>
       <c r="L6" t="n">
-        <v>694.4066539162129</v>
+        <v>609.2916258412544</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.053010869644</v>
+        <v>1089.937982794686</v>
       </c>
       <c r="N6" t="n">
-        <v>1482.137933578833</v>
+        <v>1089.937982794686</v>
       </c>
       <c r="O6" t="n">
-        <v>1482.137933578833</v>
+        <v>1482.137933578837</v>
       </c>
       <c r="P6" t="n">
-        <v>1784.23385285453</v>
+        <v>1784.233852854534</v>
       </c>
       <c r="Q6" t="n">
-        <v>1942.005482640124</v>
+        <v>1942.005482640129</v>
       </c>
       <c r="R6" t="n">
-        <v>1942.005482640124</v>
+        <v>1882.221213735074</v>
       </c>
       <c r="S6" t="n">
-        <v>1942.005482640124</v>
+        <v>1729.421726747815</v>
       </c>
       <c r="T6" t="n">
-        <v>1942.005482640124</v>
+        <v>1540.7366229138</v>
       </c>
       <c r="U6" t="n">
-        <v>1937.72211872709</v>
+        <v>1322.24183051211</v>
       </c>
       <c r="V6" t="n">
-        <v>1709.326496175424</v>
+        <v>1093.846207960444</v>
       </c>
       <c r="W6" t="n">
-        <v>1468.010627408734</v>
+        <v>1093.846207960444</v>
       </c>
       <c r="X6" t="n">
-        <v>1270.093639286529</v>
+        <v>895.9292198382383</v>
       </c>
       <c r="Y6" t="n">
-        <v>1077.572312936107</v>
+        <v>870.3513906163805</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.9210170637209</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="C7" t="n">
-        <v>343.9210170637209</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="D7" t="n">
-        <v>190.8491238914837</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="E7" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="F7" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="G7" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="H7" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="I7" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="J7" t="n">
-        <v>38.84010965280248</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="K7" t="n">
-        <v>72.44429739744589</v>
+        <v>72.44429739744598</v>
       </c>
       <c r="L7" t="n">
-        <v>173.0513767977054</v>
+        <v>173.0513767977055</v>
       </c>
       <c r="M7" t="n">
-        <v>291.0448829253071</v>
+        <v>291.0448829253072</v>
       </c>
       <c r="N7" t="n">
-        <v>409.4672246749075</v>
+        <v>409.4672246749076</v>
       </c>
       <c r="O7" t="n">
         <v>507.9308711705972</v>
       </c>
       <c r="P7" t="n">
-        <v>570.8993548987349</v>
+        <v>570.8993548987351</v>
       </c>
       <c r="Q7" t="n">
-        <v>570.8993548987349</v>
+        <v>570.8993548987351</v>
       </c>
       <c r="R7" t="n">
-        <v>570.8993548987349</v>
+        <v>558.1754643197246</v>
       </c>
       <c r="S7" t="n">
-        <v>570.8993548987349</v>
+        <v>558.1754643197246</v>
       </c>
       <c r="T7" t="n">
-        <v>570.8993548987349</v>
+        <v>324.9965111354035</v>
       </c>
       <c r="U7" t="n">
-        <v>570.8993548987349</v>
+        <v>324.9965111354035</v>
       </c>
       <c r="V7" t="n">
-        <v>570.8993548987349</v>
+        <v>324.9965111354035</v>
       </c>
       <c r="W7" t="n">
-        <v>527.4763857481007</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="X7" t="n">
-        <v>527.4763857481007</v>
+        <v>38.84010965280257</v>
       </c>
       <c r="Y7" t="n">
-        <v>527.4763857481007</v>
+        <v>38.84010965280257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1262.007322813121</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>880.0735641459282</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>507.2495993731518</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1262.007322813121</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.007322813121</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X8" t="n">
-        <v>1262.007322813121</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1262.007322813121</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>821.3991591499413</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>659.695486390896</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>520.8568493811081</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E9" t="n">
-        <v>373.8288394379794</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F9" t="n">
-        <v>239.1350413878537</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>271.5148086613879</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
         <v>737.8796590913968</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2059.463200123875</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1840.968407722185</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1612.572785170519</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1371.256916403829</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1173.339928281623</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>980.8186019312022</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="U10" t="n">
-        <v>550.215816391523</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V10" t="n">
-        <v>550.215816391523</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>264.0594149089221</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>264.0594149089221</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1150.659146871246</v>
+        <v>936.0381185586323</v>
       </c>
       <c r="C11" t="n">
-        <v>1150.659146871246</v>
+        <v>668.680284647206</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.659146871246</v>
+        <v>410.432244630196</v>
       </c>
       <c r="E11" t="n">
-        <v>870.4493517331191</v>
+        <v>408.9172143315866</v>
       </c>
       <c r="F11" t="n">
-        <v>570.8740857990558</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="G11" t="n">
-        <v>269.3460240090101</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="H11" t="n">
-        <v>51.10067436208575</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>475.5354545328008</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L11" t="n">
-        <v>935.7166914708737</v>
+        <v>823.420827617747</v>
       </c>
       <c r="M11" t="n">
         <v>1328.955857723962</v>
       </c>
       <c r="N11" t="n">
-        <v>1707.287216411677</v>
+        <v>1791.682840385323</v>
       </c>
       <c r="O11" t="n">
-        <v>2120.148704108571</v>
+        <v>2096.687424858157</v>
       </c>
       <c r="P11" t="n">
-        <v>2460.601464417751</v>
+        <v>2324.84432131421</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104288</v>
+        <v>2531.572438853874</v>
       </c>
       <c r="R11" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2482.380667490408</v>
+        <v>2482.380667490407</v>
       </c>
       <c r="T11" t="n">
-        <v>2482.380667490408</v>
+        <v>2372.597645977185</v>
       </c>
       <c r="U11" t="n">
-        <v>2342.071255960169</v>
+        <v>2232.288234446945</v>
       </c>
       <c r="V11" t="n">
-        <v>2119.667906611876</v>
+        <v>2009.884885098653</v>
       </c>
       <c r="W11" t="n">
-        <v>1976.546908024634</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="X11" t="n">
-        <v>1709.092692301894</v>
+        <v>1494.471663989281</v>
       </c>
       <c r="Y11" t="n">
-        <v>1430.126761633499</v>
+        <v>1215.505733320885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.7008174040259</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>753.9971446449806</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>615.1585076351927</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>468.1304976920639</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4829596720248</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O12" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P12" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.7421712453796</v>
+        <v>348.7421712453797</v>
       </c>
       <c r="C13" t="n">
         <v>293.7021264628263</v>
@@ -5185,16 +5185,16 @@
         <v>217.7730685634407</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8683383449843</v>
+        <v>179.8683383449841</v>
       </c>
       <c r="G13" t="n">
-        <v>125.5245144686006</v>
+        <v>125.5245144686005</v>
       </c>
       <c r="H13" t="n">
-        <v>80.72779400364084</v>
+        <v>80.72779400364078</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
         <v>104.5344386772431</v>
@@ -5203,7 +5203,7 @@
         <v>250.4344902750132</v>
       </c>
       <c r="L13" t="n">
-        <v>463.3374335283994</v>
+        <v>463.3374335283993</v>
       </c>
       <c r="M13" t="n">
         <v>693.6268035091277</v>
@@ -5227,7 +5227,7 @@
         <v>1250.814588171141</v>
       </c>
       <c r="T13" t="n">
-        <v>1132.211559742587</v>
+        <v>1132.211559742586</v>
       </c>
       <c r="U13" t="n">
         <v>959.5972449874528</v>
@@ -5236,13 +5236,13 @@
         <v>813.437865301642</v>
       </c>
       <c r="W13" t="n">
-        <v>641.8573885748076</v>
+        <v>641.8573885748074</v>
       </c>
       <c r="X13" t="n">
-        <v>525.1808492259497</v>
+        <v>525.1808492259496</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.721615173993</v>
+        <v>417.7216151739931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1374.736959009636</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="C14" t="n">
-        <v>1107.37912509821</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="D14" t="n">
-        <v>849.1310850812002</v>
+        <v>1150.659146871246</v>
       </c>
       <c r="E14" t="n">
-        <v>568.9212899430734</v>
+        <v>870.4493517331189</v>
       </c>
       <c r="F14" t="n">
-        <v>269.3460240090101</v>
+        <v>570.8740857990556</v>
       </c>
       <c r="G14" t="n">
         <v>269.3460240090101</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>235.395082488018</v>
       </c>
       <c r="K14" t="n">
-        <v>447.635214653321</v>
+        <v>587.8313183859275</v>
       </c>
       <c r="L14" t="n">
-        <v>907.8164515913938</v>
+        <v>935.7166914708737</v>
       </c>
       <c r="M14" t="n">
-        <v>1301.055617844482</v>
+        <v>1328.955857723962</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.386976532197</v>
+        <v>1819.583080264804</v>
       </c>
       <c r="O14" t="n">
-        <v>2096.687424858158</v>
+        <v>2124.587664737638</v>
       </c>
       <c r="P14" t="n">
-        <v>2324.844321314211</v>
+        <v>2352.744561193691</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.572438853875</v>
+        <v>2531.572438853874</v>
       </c>
       <c r="R14" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104288</v>
+        <v>2482.380667490407</v>
       </c>
       <c r="T14" t="n">
-        <v>2445.250696591065</v>
+        <v>2372.597645977185</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.028069511317</v>
+        <v>2232.288234446945</v>
       </c>
       <c r="V14" t="n">
-        <v>2200.624720163025</v>
+        <v>2009.884885098653</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.624720163025</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="X14" t="n">
-        <v>1933.170504440285</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="Y14" t="n">
-        <v>1654.204573771889</v>
+        <v>1688.374801650508</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4829596720248</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K15" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5376,31 +5376,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.7421712453796</v>
+        <v>348.7421712453794</v>
       </c>
       <c r="C16" t="n">
-        <v>293.7021264628263</v>
+        <v>293.7021264628261</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2061580463555</v>
+        <v>255.2061580463553</v>
       </c>
       <c r="E16" t="n">
-        <v>217.7730685634407</v>
+        <v>217.7730685634405</v>
       </c>
       <c r="F16" t="n">
-        <v>179.8683383449842</v>
+        <v>179.8683383449841</v>
       </c>
       <c r="G16" t="n">
-        <v>125.5245144686006</v>
+        <v>125.5245144686005</v>
       </c>
       <c r="H16" t="n">
-        <v>80.72779400364084</v>
+        <v>80.72779400364078</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>104.5344386772432</v>
+        <v>104.5344386772431</v>
       </c>
       <c r="K16" t="n">
         <v>250.4344902750132</v>
@@ -5452,7 +5452,7 @@
         <v>1135.104519460671</v>
       </c>
       <c r="P16" t="n">
-        <v>1310.368867041936</v>
+        <v>1310.368867041935</v>
       </c>
       <c r="Q16" t="n">
         <v>1384.894282641543</v>
@@ -5464,22 +5464,22 @@
         <v>1250.814588171141</v>
       </c>
       <c r="T16" t="n">
-        <v>1132.211559742587</v>
+        <v>1132.211559742586</v>
       </c>
       <c r="U16" t="n">
-        <v>959.5972449874529</v>
+        <v>959.5972449874525</v>
       </c>
       <c r="V16" t="n">
-        <v>813.4378653016419</v>
+        <v>813.4378653016415</v>
       </c>
       <c r="W16" t="n">
-        <v>641.8573885748074</v>
+        <v>641.857388574807</v>
       </c>
       <c r="X16" t="n">
-        <v>525.1808492259495</v>
+        <v>525.1808492259493</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.721615173993</v>
+        <v>417.7216151739927</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
-        <v>469.4217245791961</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G17" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
         <v>123.0992186348914</v>
@@ -5519,28 +5519,28 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.640850310116</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N17" t="n">
-        <v>1762.972208997831</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O17" t="n">
-        <v>2067.976793470665</v>
+        <v>1903.509018979632</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.601464417751</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T17" t="n">
         <v>2479.060069480717</v>
@@ -5555,10 +5555,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
         <v>219.4208171253267</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
         <v>111.3548208951919</v>
@@ -5613,31 +5613,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.90950739287319</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
-        <v>66.12215891288228</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G19" t="n">
-        <v>65.00954678826456</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H19" t="n">
-        <v>65.00954678826456</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I19" t="n">
-        <v>65.00954678826456</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J19" t="n">
-        <v>96.20682289912145</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K19" t="n">
-        <v>129.8110106437649</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L19" t="n">
-        <v>230.4180900440244</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4115961716261</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N19" t="n">
-        <v>466.8339379212265</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>565.2975844169162</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
         <v>628.266068145054</v>
@@ -5729,58 +5729,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G20" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H20" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362655</v>
       </c>
       <c r="K20" t="n">
-        <v>643.5163109720816</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L20" t="n">
-        <v>991.4016840570278</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.640850310116</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.972208997831</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470665</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S20" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T20" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U20" t="n">
         <v>2391.981869702243</v>
@@ -5795,7 +5795,7 @@
         <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.7008174040259</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C21" t="n">
-        <v>753.9971446449806</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>615.1585076351927</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720248</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O21" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P21" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749092</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672917</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L22" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K23" t="n">
-        <v>643.5163109720806</v>
+        <v>479.048536481048</v>
       </c>
       <c r="L23" t="n">
-        <v>991.4016840570268</v>
+        <v>991.4016840570266</v>
       </c>
       <c r="M23" t="n">
         <v>1384.640850310115</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.439983488863</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O23" t="n">
         <v>2232.444567961697</v>
@@ -6017,16 +6017,16 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C24" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E24" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F24" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G24" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I24" t="n">
         <v>51.10067436208573</v>
@@ -6108,10 +6108,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E25" t="n">
         <v>52.21328648670345</v>
@@ -6154,43 +6154,43 @@
         <v>193.5785864171873</v>
       </c>
       <c r="M25" t="n">
-        <v>331.6027317412594</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N25" t="n">
-        <v>450.0250734908598</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O25" t="n">
-        <v>548.4887199865494</v>
+        <v>528.4580807900791</v>
       </c>
       <c r="P25" t="n">
-        <v>611.4572037146872</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q25" t="n">
-        <v>611.4572037146872</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1153.607067663115</v>
       </c>
       <c r="E26" t="n">
-        <v>886.8889743911858</v>
+        <v>886.8889743911853</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8054103233198</v>
+        <v>600.8054103233194</v>
       </c>
       <c r="G26" t="n">
-        <v>312.7690503994716</v>
+        <v>312.7690503994711</v>
       </c>
       <c r="H26" t="n">
         <v>108.0154026187449</v>
@@ -6224,19 +6224,19 @@
         <v>63.26583044950467</v>
       </c>
       <c r="J26" t="n">
-        <v>260.7834555744971</v>
+        <v>260.7834555744975</v>
       </c>
       <c r="K26" t="n">
-        <v>626.4429084714666</v>
+        <v>626.442908471467</v>
       </c>
       <c r="L26" t="n">
-        <v>1099.847362408599</v>
+        <v>1099.8473624086</v>
       </c>
       <c r="M26" t="n">
-        <v>1618.605609513874</v>
+        <v>1618.605609513875</v>
       </c>
       <c r="N26" t="n">
-        <v>2122.456049053776</v>
+        <v>2122.456049053777</v>
       </c>
       <c r="O26" t="n">
         <v>2552.979714378797</v>
@@ -6294,10 +6294,10 @@
         <v>345.6018557293567</v>
       </c>
       <c r="G27" t="n">
-        <v>231.5859732127456</v>
+        <v>216.8733557526412</v>
       </c>
       <c r="H27" t="n">
-        <v>131.6481157594437</v>
+        <v>116.9354982993393</v>
       </c>
       <c r="I27" t="n">
         <v>63.26583044950467</v>
@@ -6388,10 +6388,10 @@
         <v>222.3890990463347</v>
       </c>
       <c r="L28" t="n">
-        <v>406.7869882122153</v>
+        <v>448.5152592987809</v>
       </c>
       <c r="M28" t="n">
-        <v>650.2995751920037</v>
+        <v>692.0278462785693</v>
       </c>
       <c r="N28" t="n">
         <v>894.2409977937907</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1652.229537859156</v>
+        <v>1652.229537859157</v>
       </c>
       <c r="C29" t="n">
         <v>1398.363405813928</v>
       </c>
       <c r="D29" t="n">
-        <v>1153.607067663115</v>
+        <v>1153.607067663116</v>
       </c>
       <c r="E29" t="n">
-        <v>886.8889743911861</v>
+        <v>886.8889743911859</v>
       </c>
       <c r="F29" t="n">
         <v>600.8054103233201</v>
@@ -6491,7 +6491,7 @@
         <v>3104.130173727551</v>
       </c>
       <c r="T29" t="n">
-        <v>3007.838854080527</v>
+        <v>3007.838854080526</v>
       </c>
       <c r="U29" t="n">
         <v>2881.021144416484</v>
@@ -6503,7 +6503,7 @@
         <v>2437.642193413953</v>
       </c>
       <c r="X29" t="n">
-        <v>2183.67967955741</v>
+        <v>2183.679679557411</v>
       </c>
       <c r="Y29" t="n">
         <v>1918.205450755212</v>
@@ -6534,7 +6534,7 @@
         <v>216.8733557526412</v>
       </c>
       <c r="H30" t="n">
-        <v>116.9354982993393</v>
+        <v>131.6481157594437</v>
       </c>
       <c r="I30" t="n">
         <v>63.26583044950468</v>
@@ -6622,19 +6622,19 @@
         <v>129.9228117637221</v>
       </c>
       <c r="K31" t="n">
-        <v>289.0460803605522</v>
+        <v>218.4312762132868</v>
       </c>
       <c r="L31" t="n">
-        <v>444.5574364657331</v>
+        <v>444.557436465733</v>
       </c>
       <c r="M31" t="n">
-        <v>562.5509425933349</v>
+        <v>562.5509425933348</v>
       </c>
       <c r="N31" t="n">
-        <v>806.4923651951219</v>
+        <v>680.9732843429351</v>
       </c>
       <c r="O31" t="n">
-        <v>1030.475092542998</v>
+        <v>904.9560116908115</v>
       </c>
       <c r="P31" t="n">
         <v>1093.443576271136</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1576.234575957421</v>
+        <v>1576.234575957424</v>
       </c>
       <c r="C32" t="n">
-        <v>1332.769988976955</v>
+        <v>1332.769988976958</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.415195890905</v>
+        <v>1098.415195890907</v>
       </c>
       <c r="E32" t="n">
-        <v>842.0986476837386</v>
+        <v>842.0986476837402</v>
       </c>
       <c r="F32" t="n">
-        <v>566.4166286806353</v>
+        <v>566.4166286806367</v>
       </c>
       <c r="G32" t="n">
-        <v>288.7818138215496</v>
+        <v>288.7818138215507</v>
       </c>
       <c r="H32" t="n">
-        <v>94.42971110558551</v>
+        <v>94.42971110558585</v>
       </c>
       <c r="I32" t="n">
-        <v>60.08168400110793</v>
+        <v>60.08168400110802</v>
       </c>
       <c r="J32" t="n">
-        <v>267.7938634440741</v>
+        <v>267.793863444074</v>
       </c>
       <c r="K32" t="n">
-        <v>643.6478706590174</v>
+        <v>643.6478706590171</v>
       </c>
       <c r="L32" t="n">
         <v>1127.246878914124</v>
@@ -6713,37 +6713,37 @@
         <v>2034.531039025088</v>
       </c>
       <c r="O32" t="n">
-        <v>2475.249258668083</v>
+        <v>2363.188729005044</v>
       </c>
       <c r="P32" t="n">
-        <v>2839.119790294297</v>
+        <v>2727.059260631258</v>
       </c>
       <c r="Q32" t="n">
-        <v>2957.20514948795</v>
+        <v>2957.205149487955</v>
       </c>
       <c r="R32" t="n">
-        <v>3004.084200055397</v>
+        <v>3004.084200055401</v>
       </c>
       <c r="S32" t="n">
-        <v>2955.324396372476</v>
+        <v>2955.324396372482</v>
       </c>
       <c r="T32" t="n">
-        <v>2869.434621790214</v>
+        <v>2869.434621790219</v>
       </c>
       <c r="U32" t="n">
-        <v>2753.018457190934</v>
+        <v>2753.018457190939</v>
       </c>
       <c r="V32" t="n">
-        <v>2554.508354773603</v>
+        <v>2554.508354773607</v>
       </c>
       <c r="W32" t="n">
-        <v>2330.44259631793</v>
+        <v>2330.442596317934</v>
       </c>
       <c r="X32" t="n">
-        <v>2086.88162752615</v>
+        <v>2086.881627526153</v>
       </c>
       <c r="Y32" t="n">
-        <v>1831.808943788714</v>
+        <v>1831.808943788717</v>
       </c>
     </row>
     <row r="33">
@@ -6765,25 +6765,25 @@
         <v>477.1115073310854</v>
       </c>
       <c r="F33" t="n">
-        <v>342.4177092809598</v>
+        <v>357.1303267410644</v>
       </c>
       <c r="G33" t="n">
-        <v>228.4018267643489</v>
+        <v>228.401826764349</v>
       </c>
       <c r="H33" t="n">
-        <v>128.4639693110469</v>
+        <v>128.463969311047</v>
       </c>
       <c r="I33" t="n">
-        <v>60.08168400110793</v>
+        <v>60.08168400110802</v>
       </c>
       <c r="J33" t="n">
-        <v>120.3358305342141</v>
+        <v>120.3358305342142</v>
       </c>
       <c r="K33" t="n">
-        <v>349.8263830944027</v>
+        <v>349.8263830944028</v>
       </c>
       <c r="L33" t="n">
-        <v>715.6482282645184</v>
+        <v>715.6482282645185</v>
       </c>
       <c r="M33" t="n">
         <v>1200.681581774745</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>190.4704523676818</v>
+        <v>190.4704523676835</v>
       </c>
       <c r="C34" t="n">
-        <v>159.3236545160885</v>
+        <v>159.3236545160899</v>
       </c>
       <c r="D34" t="n">
-        <v>144.7209330305776</v>
+        <v>144.7209330305788</v>
       </c>
       <c r="E34" t="n">
-        <v>131.1810904786228</v>
+        <v>131.1810904786238</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1696071911264</v>
+        <v>117.1696071911271</v>
       </c>
       <c r="G34" t="n">
-        <v>86.71903024570278</v>
+        <v>86.71903024570332</v>
       </c>
       <c r="H34" t="n">
-        <v>65.81555671170301</v>
+        <v>65.81555671170332</v>
       </c>
       <c r="I34" t="n">
-        <v>60.08168400110793</v>
+        <v>60.08168400110802</v>
       </c>
       <c r="J34" t="n">
-        <v>136.9332196332992</v>
+        <v>110.1536388823148</v>
       </c>
       <c r="K34" t="n">
-        <v>241.7010135435947</v>
+        <v>143.7578266269582</v>
       </c>
       <c r="L34" t="n">
-        <v>478.0217281140147</v>
+        <v>380.078541197378</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0152342416164</v>
+        <v>498.0720473249797</v>
       </c>
       <c r="N34" t="n">
-        <v>714.4375759912168</v>
+        <v>616.4943890745801</v>
       </c>
       <c r="O34" t="n">
-        <v>948.6148576570671</v>
+        <v>714.9580355702698</v>
       </c>
       <c r="P34" t="n">
-        <v>1011.583341385205</v>
+        <v>913.6401544685679</v>
       </c>
       <c r="Q34" t="n">
-        <v>1011.583341385205</v>
+        <v>1011.583341385209</v>
       </c>
       <c r="R34" t="n">
-        <v>1000.53073168631</v>
+        <v>1000.530731686313</v>
       </c>
       <c r="S34" t="n">
-        <v>925.2901407767235</v>
+        <v>925.2901407767268</v>
       </c>
       <c r="T34" t="n">
-        <v>830.5803592791287</v>
+        <v>830.5803592791318</v>
       </c>
       <c r="U34" t="n">
-        <v>681.859291454955</v>
+        <v>681.8592914549579</v>
       </c>
       <c r="V34" t="n">
-        <v>559.593158700104</v>
+        <v>559.5931587001066</v>
       </c>
       <c r="W34" t="n">
-        <v>411.9059289042295</v>
+        <v>411.9059289042319</v>
       </c>
       <c r="X34" t="n">
-        <v>319.1226364863317</v>
+        <v>319.1226364863338</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5566493653352</v>
+        <v>235.5566493653371</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
         <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160322</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E36" t="n">
         <v>482.8431151521678</v>
@@ -7011,16 +7011,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
-        <v>111.3548208951924</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553811</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
-        <v>706.6672186254967</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M36" t="n">
         <v>1191.700572135723</v>
@@ -7038,22 +7038,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S36" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X36" t="n">
         <v>1267.641586535707</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287319</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>65.91841943632294</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>65.91841943632294</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>64.80580731170521</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
         <v>527.7073651707066</v>
@@ -7184,13 +7184,13 @@
         <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2296.133689926718</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
         <v>2555.033718104287</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,22 +7275,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
         <v>1267.641586535707</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
-        <v>65.91841943632294</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>64.80580731170521</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
         <v>628.266068145054</v>
@@ -7363,19 +7363,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>397.6085223761172</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>304.680354442072</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670034</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972075</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1349.936918480596</v>
+        <v>1104.466567008651</v>
       </c>
       <c r="C41" t="n">
-        <v>1103.632640625422</v>
+        <v>858.1622891534766</v>
       </c>
       <c r="D41" t="n">
-        <v>1103.632640625422</v>
+        <v>620.9678051927186</v>
       </c>
       <c r="E41" t="n">
-        <v>844.4764015435474</v>
+        <v>361.8115661108442</v>
       </c>
       <c r="F41" t="n">
-        <v>565.9546916657364</v>
+        <v>248.2924679527577</v>
       </c>
       <c r="G41" t="n">
-        <v>285.4801859319431</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="H41" t="n">
-        <v>88.28839234127102</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>496.1700448235337</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>845.9126807191944</v>
+        <v>757.0780961164803</v>
       </c>
       <c r="M41" t="n">
-        <v>1239.151846972282</v>
+        <v>1150.317262369568</v>
       </c>
       <c r="N41" t="n">
-        <v>1617.483205659998</v>
+        <v>1661.579075201143</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.418244276691</v>
+        <v>1966.583659673978</v>
       </c>
       <c r="P41" t="n">
-        <v>2416.505594876604</v>
+        <v>2327.67101027389</v>
       </c>
       <c r="Q41" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7442,19 +7442,19 @@
         <v>2414.70475808969</v>
       </c>
       <c r="U41" t="n">
-        <v>2414.70475808969</v>
+        <v>2295.448902615703</v>
       </c>
       <c r="V41" t="n">
-        <v>2213.35496479765</v>
+        <v>2094.099109323663</v>
       </c>
       <c r="W41" t="n">
-        <v>1986.449515467269</v>
+        <v>1867.193659993282</v>
       </c>
       <c r="X41" t="n">
-        <v>1740.048855800781</v>
+        <v>1620.793000326794</v>
       </c>
       <c r="Y41" t="n">
-        <v>1482.136481188638</v>
+        <v>1362.880625714651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.3672788516135</v>
+        <v>201.3672788516134</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3807901253125</v>
+        <v>167.3807901253124</v>
       </c>
       <c r="D43" t="n">
-        <v>149.9383777650939</v>
+        <v>149.9383777650938</v>
       </c>
       <c r="E43" t="n">
-        <v>133.5588443384315</v>
+        <v>133.5588443384314</v>
       </c>
       <c r="F43" t="n">
-        <v>116.7076701762273</v>
+        <v>116.7076701762272</v>
       </c>
       <c r="G43" t="n">
-        <v>83.41740235609599</v>
+        <v>83.41740235609595</v>
       </c>
       <c r="H43" t="n">
-        <v>59.67423794738851</v>
+        <v>59.67423794738849</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>150.7909658086383</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>384.3284993527573</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>502.3220054803591</v>
+        <v>436.2359017784499</v>
       </c>
       <c r="N43" t="n">
-        <v>620.7443472299594</v>
+        <v>658.5147954834785</v>
       </c>
       <c r="O43" t="n">
-        <v>852.1384478695086</v>
+        <v>756.9784419791681</v>
       </c>
       <c r="P43" t="n">
-        <v>1048.037385741506</v>
+        <v>952.8773798511655</v>
       </c>
       <c r="Q43" t="n">
         <v>1048.037385741506</v>
@@ -7594,25 +7594,25 @@
         <v>1034.145085167903</v>
       </c>
       <c r="S43" t="n">
-        <v>956.0648033836092</v>
+        <v>956.0648033836089</v>
       </c>
       <c r="T43" t="n">
-        <v>858.5153310113067</v>
+        <v>858.5153310113064</v>
       </c>
       <c r="U43" t="n">
-        <v>706.9545723124253</v>
+        <v>706.9545723124251</v>
       </c>
       <c r="V43" t="n">
-        <v>581.8487486828666</v>
+        <v>581.8487486828664</v>
       </c>
       <c r="W43" t="n">
-        <v>431.3218280122844</v>
+        <v>431.3218280122842</v>
       </c>
       <c r="X43" t="n">
-        <v>335.6988447196789</v>
+        <v>335.6988447196787</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.2931667239747</v>
+        <v>249.2931667239745</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1193.19603246562</v>
+        <v>1104.46656700865</v>
       </c>
       <c r="C44" t="n">
-        <v>946.8917546104458</v>
+        <v>858.1622891534757</v>
       </c>
       <c r="D44" t="n">
-        <v>709.6972706496878</v>
+        <v>620.9678051927179</v>
       </c>
       <c r="E44" t="n">
-        <v>647.2846079528756</v>
+        <v>526.8141778305688</v>
       </c>
       <c r="F44" t="n">
-        <v>368.7628980750645</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="G44" t="n">
-        <v>88.28839234127113</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="H44" t="n">
-        <v>88.28839234127113</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>169.0523509867516</v>
       </c>
       <c r="K44" t="n">
-        <v>496.1700448235335</v>
+        <v>409.1927230315343</v>
       </c>
       <c r="L44" t="n">
-        <v>976.9858720523391</v>
+        <v>890.00855026034</v>
       </c>
       <c r="M44" t="n">
-        <v>1503.155492449287</v>
+        <v>1416.178170657287</v>
       </c>
       <c r="N44" t="n">
-        <v>1881.486851137002</v>
+        <v>1794.509529345003</v>
       </c>
       <c r="O44" t="n">
-        <v>2186.491435609836</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
         <v>2460.60146441775</v>
@@ -7673,25 +7673,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2503.43422354666</v>
+        <v>2503.434223546659</v>
       </c>
       <c r="T44" t="n">
-        <v>2503.43422354666</v>
+        <v>2414.70475808969</v>
       </c>
       <c r="U44" t="n">
-        <v>2384.178368072672</v>
+        <v>2295.448902615702</v>
       </c>
       <c r="V44" t="n">
-        <v>2182.828574780632</v>
+        <v>2094.099109323662</v>
       </c>
       <c r="W44" t="n">
-        <v>1955.923125450252</v>
+        <v>1867.193659993282</v>
       </c>
       <c r="X44" t="n">
-        <v>1709.522465783764</v>
+        <v>1620.793000326794</v>
       </c>
       <c r="Y44" t="n">
-        <v>1451.610091171621</v>
+        <v>1362.88062571465</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.3672788516142</v>
+        <v>201.3672788516139</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3807901253131</v>
+        <v>167.3807901253129</v>
       </c>
       <c r="D46" t="n">
-        <v>149.9383777650944</v>
+        <v>149.9383777650942</v>
       </c>
       <c r="E46" t="n">
-        <v>133.5588443384318</v>
+        <v>133.5588443384317</v>
       </c>
       <c r="F46" t="n">
-        <v>116.7076701762276</v>
+        <v>116.7076701762275</v>
       </c>
       <c r="G46" t="n">
-        <v>83.41740235609618</v>
+        <v>83.4174023560961</v>
       </c>
       <c r="H46" t="n">
-        <v>59.6742379473886</v>
+        <v>59.67423794738856</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
         <v>217.6353162505886</v>
       </c>
       <c r="L46" t="n">
-        <v>451.1728497947075</v>
+        <v>422.0989476062779</v>
       </c>
       <c r="M46" t="n">
-        <v>673.0229078777398</v>
+        <v>673.022907877739</v>
       </c>
       <c r="N46" t="n">
-        <v>791.4452496273402</v>
+        <v>791.4452496273394</v>
       </c>
       <c r="O46" t="n">
-        <v>889.9088961230299</v>
+        <v>889.9088961230291</v>
       </c>
       <c r="P46" t="n">
-        <v>952.8773798511677</v>
+        <v>952.8773798511669</v>
       </c>
       <c r="Q46" t="n">
-        <v>1048.037385741508</v>
+        <v>1048.037385741507</v>
       </c>
       <c r="R46" t="n">
         <v>1034.145085167904</v>
       </c>
       <c r="S46" t="n">
-        <v>956.0648033836105</v>
+        <v>956.0648033836101</v>
       </c>
       <c r="T46" t="n">
-        <v>858.5153310113079</v>
+        <v>858.5153310113076</v>
       </c>
       <c r="U46" t="n">
-        <v>706.9545723124264</v>
+        <v>706.9545723124261</v>
       </c>
       <c r="V46" t="n">
-        <v>581.8487486828676</v>
+        <v>581.8487486828673</v>
       </c>
       <c r="W46" t="n">
-        <v>431.3218280122853</v>
+        <v>431.321828012285</v>
       </c>
       <c r="X46" t="n">
-        <v>335.6988447196797</v>
+        <v>335.6988447196794</v>
       </c>
       <c r="Y46" t="n">
-        <v>249.2931667239754</v>
+        <v>249.2931667239751</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>426.7684258927624</v>
+        <v>426.7684258927667</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>466.1431514615217</v>
       </c>
       <c r="M3" t="n">
-        <v>322.1805399538954</v>
+        <v>600.9852732216721</v>
       </c>
       <c r="N3" t="n">
-        <v>592.2165117277393</v>
+        <v>592.2165117277405</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8222,10 +8222,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>426.7684258927667</v>
       </c>
       <c r="N5" t="n">
-        <v>410.9518340876594</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8298,16 +8298,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>396.1176730612053</v>
       </c>
       <c r="M6" t="n">
-        <v>600.9852732216709</v>
+        <v>600.9852732216721</v>
       </c>
       <c r="N6" t="n">
-        <v>416.9019316830507</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8529,16 +8529,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>586.5595090565984</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163532</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425325</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>605.416582875</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.918345942532</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>275.9078171911221</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>103.7896267313966</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>116.9059166059865</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>203.3607040808143</v>
       </c>
     </row>
     <row r="15">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>124.9523510379786</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>234.8225391211502</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>163.3525856025272</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>277.6697606764553</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>36.81584079939341</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>118.0632969192474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>194.7761406212118</v>
+        <v>163.3525856025281</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>277.6697606764554</v>
       </c>
       <c r="H44" t="n">
-        <v>195.2198756547654</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.8158407993935</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>87.84217080240052</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26317,40 +26317,40 @@
         <v>748433.4589818271</v>
       </c>
       <c r="D2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.458981827</v>
       </c>
       <c r="E2" t="n">
         <v>687084.0349726179</v>
       </c>
       <c r="F2" t="n">
-        <v>687084.0349726179</v>
+        <v>687084.0349726181</v>
       </c>
       <c r="G2" t="n">
-        <v>748433.4589818268</v>
+        <v>748433.4589818269</v>
       </c>
       <c r="H2" t="n">
         <v>748433.4589818269</v>
       </c>
       <c r="I2" t="n">
-        <v>748433.4589818269</v>
+        <v>748433.458981827</v>
       </c>
       <c r="J2" t="n">
         <v>748433.4589818274</v>
       </c>
       <c r="K2" t="n">
-        <v>748433.458981827</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="L2" t="n">
-        <v>748433.4589818281</v>
+        <v>748433.4589818255</v>
       </c>
       <c r="M2" t="n">
-        <v>748433.4589818266</v>
+        <v>748433.4589818267</v>
       </c>
       <c r="N2" t="n">
-        <v>748433.4589818267</v>
+        <v>748433.4589818271</v>
       </c>
       <c r="O2" t="n">
-        <v>711348.4372826746</v>
+        <v>711348.4372826747</v>
       </c>
       <c r="P2" t="n">
         <v>711348.4372826747</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162702.6758397016</v>
+        <v>162702.675839702</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12363.6426408185</v>
+        <v>12363.64264081816</v>
       </c>
       <c r="E3" t="n">
         <v>124619.3675503042</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42159.11970739857</v>
+        <v>42159.11970739855</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>226085.7124438778</v>
+        <v>226085.7124438781</v>
       </c>
       <c r="K3" t="n">
         <v>5.684341886080801e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>50397.14339869055</v>
+        <v>50397.14339869034</v>
       </c>
       <c r="M3" t="n">
-        <v>23532.87076561677</v>
+        <v>23532.87076561659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33785.73726634996</v>
+        <v>33785.73726635001</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207225.7233851208</v>
+        <v>207225.7233851205</v>
       </c>
       <c r="C4" t="n">
-        <v>207225.7233851207</v>
+        <v>207225.7233851205</v>
       </c>
       <c r="D4" t="n">
         <v>196979.4332140584</v>
@@ -26445,13 +26445,13 @@
         <v>188087.4764890356</v>
       </c>
       <c r="L4" t="n">
-        <v>187874.2937564694</v>
+        <v>187874.2937564695</v>
       </c>
       <c r="M4" t="n">
         <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="O4" t="n">
         <v>165723.8372594524</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63146.08333612989</v>
+        <v>63146.08333612995</v>
       </c>
       <c r="C5" t="n">
-        <v>63146.08333612989</v>
+        <v>63146.08333612995</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>48372.47309929477</v>
+        <v>48372.47309929476</v>
       </c>
       <c r="F5" t="n">
-        <v>48372.47309929477</v>
+        <v>48372.47309929476</v>
       </c>
       <c r="G5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="H5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
         <v>52802.81689264637</v>
@@ -26497,19 +26497,19 @@
         <v>58740.8832710806</v>
       </c>
       <c r="L5" t="n">
-        <v>57186.63498742811</v>
+        <v>57186.63498742817</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>50124.7249893469</v>
+        <v>50124.72498934691</v>
       </c>
       <c r="P5" t="n">
-        <v>50124.7249893469</v>
+        <v>50124.72498934689</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>315358.9764208751</v>
+        <v>315358.9764208748</v>
       </c>
       <c r="C6" t="n">
-        <v>478061.6522605765</v>
+        <v>478061.6522605767</v>
       </c>
       <c r="D6" t="n">
-        <v>473524.3484900389</v>
+        <v>473524.3484900391</v>
       </c>
       <c r="E6" t="n">
-        <v>362467.7863100921</v>
+        <v>362310.4800946839</v>
       </c>
       <c r="F6" t="n">
-        <v>487087.1538603963</v>
+        <v>486929.8476449883</v>
       </c>
       <c r="G6" t="n">
-        <v>466168.5368855583</v>
+        <v>466168.5368855584</v>
       </c>
       <c r="H6" t="n">
         <v>508327.656592957</v>
       </c>
       <c r="I6" t="n">
-        <v>508327.656592957</v>
+        <v>508327.6565929571</v>
       </c>
       <c r="J6" t="n">
-        <v>275519.3867778333</v>
+        <v>275519.3867778331</v>
       </c>
       <c r="K6" t="n">
-        <v>501605.0992217108</v>
+        <v>501605.0992217109</v>
       </c>
       <c r="L6" t="n">
-        <v>452975.38683924</v>
+        <v>452975.3868392375</v>
       </c>
       <c r="M6" t="n">
-        <v>484794.7858273399</v>
+        <v>484794.7858273402</v>
       </c>
       <c r="N6" t="n">
-        <v>508327.6565929567</v>
+        <v>508327.6565929572</v>
       </c>
       <c r="O6" t="n">
-        <v>461714.1377675254</v>
+        <v>461619.0479682968</v>
       </c>
       <c r="P6" t="n">
-        <v>495499.8750338755</v>
+        <v>495404.7852346469</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26713,7 +26713,7 @@
         <v>126.7869503557442</v>
       </c>
       <c r="L2" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600311</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="C4" t="n">
-        <v>485.5013706600311</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
         <v>638.7584295260716</v>
@@ -26817,19 +26817,19 @@
         <v>790.8228806188084</v>
       </c>
       <c r="L4" t="n">
-        <v>751.0210500138492</v>
+        <v>751.0210500138503</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.69889963424821</v>
+        <v>52.69889963424818</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.08805072149588</v>
+        <v>74.0880507214959</v>
       </c>
       <c r="K2" t="n">
         <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>62.99642924836319</v>
+        <v>62.99642924836293</v>
       </c>
       <c r="M2" t="n">
-        <v>29.04458517259781</v>
+        <v>29.04458517259803</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.23217158293744</v>
+        <v>42.2321715829375</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600311</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.80183060495926</v>
+        <v>39.80183060495818</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>637.5658217527676</v>
+        <v>637.5658217527687</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.192607773304303</v>
+        <v>1.192607773302825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.69889963424821</v>
+        <v>52.69889963424818</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>74.08805072149588</v>
+        <v>74.0880507214959</v>
       </c>
       <c r="P2" t="n">
         <v>7.105427357601002e-14</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>485.5013706600311</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.80183060495926</v>
+        <v>39.80183060495818</v>
       </c>
       <c r="M4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27385,7 +27385,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>348.9260991630009</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.97845702407062</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>91.77368305404478</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>47.6479315919282</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27555,7 +27555,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3283696525923</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>236.4515785567442</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.76228819381328</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.048958987325193</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>212.069314203769</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>165.2740621572777</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27819,13 +27819,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>240.306098008647</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>352.2173983190064</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>237.1500269824789</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>145.4661439089489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>189.0241322230513</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>260.6893290097386</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>85.24810502388482</v>
       </c>
       <c r="O11" t="n">
-        <v>108.9463668929898</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14.56549128550284</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K14" t="n">
-        <v>85.24810502388564</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>85.24810502388468</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.56549128550284</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J16" t="n">
         <v>113.4301655082088</v>
       </c>
       <c r="K16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082083</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="17">
@@ -28591,10 +28591,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9787331327019</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28606,7 +28606,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5654912855029</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28737,13 +28737,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>147.8207661206955</v>
       </c>
       <c r="J19" t="n">
-        <v>90.96906631194565</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28822,28 +28822,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K20" t="n">
-        <v>116.978733132702</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>89.73190363910518</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>14.56549128550284</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -29059,22 +29059,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
-        <v>116.9787331327011</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>20.2329688853236</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>19.10911825439662</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29460,13 +29460,13 @@
         <v>126.7869503557441</v>
       </c>
       <c r="L28" t="n">
-        <v>84.63718158143541</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="M28" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="N28" t="n">
-        <v>126.7869503557441</v>
+        <v>84.6371815814354</v>
       </c>
       <c r="O28" t="n">
         <v>126.7869503557441</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550336</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29694,22 +29694,22 @@
         <v>126.7869503557442</v>
       </c>
       <c r="K31" t="n">
+        <v>55.45886535850636</v>
+      </c>
+      <c r="L31" t="n">
         <v>126.7869503557442</v>
       </c>
-      <c r="L31" t="n">
-        <v>55.4588653585065</v>
-      </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>126.7869503557442</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>126.7869503557442</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>126.7869503557442</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7869503557442</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="C32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="D32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="E32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="F32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="G32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="H32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="I32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="K32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="L32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="O32" t="n">
-        <v>137.0844799698591</v>
+        <v>23.89202576477055</v>
       </c>
       <c r="P32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.89202576476404</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="R32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="S32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="T32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="U32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="V32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="W32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="X32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
     </row>
     <row r="33">
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.56549128550363</v>
       </c>
       <c r="G33" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="C34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="D34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="E34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="F34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="G34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="H34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="I34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="J34" t="n">
-        <v>137.0844799698591</v>
+        <v>110.0343984032081</v>
       </c>
       <c r="K34" t="n">
-        <v>71.88243047035562</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>137.0844799698591</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="R34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="S34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="T34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="U34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="V34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="W34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="X34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.0844799698591</v>
+        <v>137.0844799698589</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>40.58157162934918</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N35" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>116.9787331327018</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30065,13 +30065,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>165.4563433632006</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30159,10 +30159,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,28 +30244,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R38" t="n">
         <v>89.73190363910518</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30390,16 +30390,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>165.9232676913869</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30484,28 +30484,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>46.41730540591914</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>134.2731860038985</v>
       </c>
-      <c r="L41" t="n">
-        <v>1.876023041125791</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
-        <v>134.2731860038985</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>134.2731860038985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R41" t="n">
-        <v>134.2731860038985</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>134.2731860038985</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>14.56549128550326</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30642,25 +30642,25 @@
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>66.75364010293855</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>134.2731860038985</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.905608035786</v>
       </c>
       <c r="O43" t="n">
-        <v>134.2731860038985</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>134.2731860038985</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R43" t="n">
         <v>134.2731860038985</v>
@@ -30718,10 +30718,10 @@
         <v>134.2731860038984</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>46.41730540591939</v>
       </c>
       <c r="K44" t="n">
-        <v>134.2731860038984</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>134.2731860038984</v>
@@ -30733,10 +30733,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>134.2731860038984</v>
       </c>
       <c r="P44" t="n">
-        <v>46.41730540591971</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30882,10 +30882,10 @@
         <v>134.2731860038984</v>
       </c>
       <c r="L46" t="n">
+        <v>104.9056080357877</v>
+      </c>
+      <c r="M46" t="n">
         <v>134.2731860038984</v>
-      </c>
-      <c r="M46" t="n">
-        <v>104.9056080357885</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>239.6121113956033</v>
+        <v>239.6121113956076</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>353.567717890374</v>
       </c>
       <c r="M3" t="n">
-        <v>206.6966373922555</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="N3" t="n">
-        <v>485.5013706600311</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>239.6121113956076</v>
       </c>
       <c r="N5" t="n">
-        <v>224.5537199154293</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35018,16 +35018,16 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>283.5422394900576</v>
       </c>
       <c r="M6" t="n">
-        <v>485.5013706600311</v>
+        <v>485.5013706600321</v>
       </c>
       <c r="N6" t="n">
-        <v>310.1867906153424</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>471.0756064949585</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35410,28 +35410,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>467.400992587234</v>
       </c>
       <c r="O11" t="n">
-        <v>417.0318057544382</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.69826186910358</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496865</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35504,7 +35504,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K13" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L13" t="n">
         <v>215.0534780337234</v>
@@ -35583,10 +35583,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>327.8141373923531</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
-        <v>421.5156043696572</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>180.6342198587705</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910358</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823982</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K16" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L16" t="n">
         <v>215.0534780337234</v>
@@ -35820,10 +35820,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265293</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>514.1900121762251</v>
+        <v>514.1900121762243</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35902,7 +35902,7 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36033,13 +36033,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.05975216734729</v>
       </c>
       <c r="J19" t="n">
-        <v>31.51240011197666</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284644</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011695</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36130,16 +36130,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
-        <v>148.3089293554676</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
         <v>119.1853597248502</v>
@@ -36297,7 +36297,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K23" t="n">
-        <v>359.5447655011686</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36498,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>139.4183286101738</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36531,7 +36531,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>82.71364727271762</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>160.7305743402324</v>
       </c>
       <c r="L28" t="n">
-        <v>186.2604941069501</v>
+        <v>228.4102628812587</v>
       </c>
       <c r="M28" t="n">
         <v>245.9723100805943</v>
       </c>
       <c r="N28" t="n">
-        <v>246.4054773755424</v>
+        <v>204.2557086012337</v>
       </c>
       <c r="O28" t="n">
         <v>226.245179139269</v>
@@ -36990,22 +36990,22 @@
         <v>67.33028415577516</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7305743402325</v>
+        <v>89.40248934299466</v>
       </c>
       <c r="L31" t="n">
-        <v>157.0821778840211</v>
+        <v>228.4102628812588</v>
       </c>
       <c r="M31" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
-        <v>246.4054773755425</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
         <v>226.2451791392691</v>
       </c>
       <c r="P31" t="n">
-        <v>63.604529018321</v>
+        <v>190.3914793740652</v>
       </c>
       <c r="Q31" t="n">
         <v>88.6349824228963</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.8102822656224</v>
+        <v>209.8102822656222</v>
       </c>
       <c r="K32" t="n">
-        <v>379.6505123383266</v>
+        <v>379.6505123383263</v>
       </c>
       <c r="L32" t="n">
-        <v>488.4838467223301</v>
+        <v>488.4838467223299</v>
       </c>
       <c r="M32" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>519.2373675332084</v>
+        <v>519.2373675332082</v>
       </c>
       <c r="O32" t="n">
-        <v>445.1699188313075</v>
+        <v>331.977464626219</v>
       </c>
       <c r="P32" t="n">
-        <v>367.5459915416301</v>
+        <v>367.5459915416299</v>
       </c>
       <c r="Q32" t="n">
-        <v>119.2781405996499</v>
+        <v>232.4705948047448</v>
       </c>
       <c r="R32" t="n">
-        <v>47.35257633075395</v>
+        <v>47.35257633075372</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.62781376989014</v>
+        <v>50.57773220323914</v>
       </c>
       <c r="K34" t="n">
-        <v>105.8260544548439</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>238.7077924953738</v>
+        <v>238.7077924953736</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>236.5427087533841</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>200.6890089881799</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.93251203701105</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>347.4402447044727</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586534</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
@@ -37403,7 +37403,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>14.96741926690625</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37552,16 +37552,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>499.1316206960502</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37686,16 +37686,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>14.96741926690626</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>376.839218372366</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>353.2753897935967</v>
+        <v>397.8166721583901</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>516.4260735672477</v>
       </c>
       <c r="O41" t="n">
-        <v>442.3586248653469</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>364.7346975756694</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>229.6593008387844</v>
       </c>
       <c r="R41" t="n">
-        <v>44.54128236479332</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>100.6972640874268</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>235.8964985294132</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>119.1853597248502</v>
+        <v>253.4585457287488</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197983</v>
+        <v>224.5241350555844</v>
       </c>
       <c r="O43" t="n">
-        <v>233.7314147874234</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>197.8777150222195</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>96.12121807105068</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>119.1431077016827</v>
       </c>
       <c r="K44" t="n">
-        <v>376.8392183723658</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6725527563693</v>
+        <v>485.6725527563694</v>
       </c>
       <c r="M44" t="n">
         <v>531.4844650474216</v>
@@ -38029,10 +38029,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>442.3586248653469</v>
       </c>
       <c r="P44" t="n">
-        <v>276.8788169776906</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38178,10 +38178,10 @@
         <v>168.2168099883867</v>
       </c>
       <c r="L46" t="n">
-        <v>235.8964985294131</v>
+        <v>206.5289205613023</v>
       </c>
       <c r="M46" t="n">
-        <v>224.0909677606387</v>
+        <v>253.4585457287487</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.12121807105056</v>
+        <v>96.12121807105059</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
